--- a/config_files/Horarios/Medibiofarma/Richard Roberts.xlsx
+++ b/config_files/Horarios/Medibiofarma/Richard Roberts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="470">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -323,7 +323,8 @@
     <t>Medibiofarma</t>
   </si>
   <si>
-    <t>B66918053</t>
+    <t xml:space="preserve">B66918053
+</t>
   </si>
   <si>
     <t>31/1124914-33</t>
@@ -9416,21 +9417,20 @@
       </c>
     </row>
     <row r="46" ht="15.6" customHeight="true">
-      <c r="Z46" s="104" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA46" s="109" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AB46" s="109" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="AC46" s="106" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="109"/>
+      <c r="AB46" s="109"/>
+      <c r="AC46" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
@@ -9440,13 +9440,6 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/config_files/Horarios/Medibiofarma/Richard Roberts.xlsx
+++ b/config_files/Horarios/Medibiofarma/Richard Roberts.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="119">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -376,15 +376,24 @@
   <si>
     <t>Diciembre</t>
   </si>
+  <si>
+    <t>baja</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>vacaciones</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="mmmm\ yyyy"/>
     <numFmt numFmtId="179" formatCode="d"/>
@@ -1962,7 +1971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2279,6 +2288,21 @@
     </xf>
     <xf numFmtId="180" fontId="17" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3123,16 +3147,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="2.78181818181818" customWidth="1"/>
-    <col min="2" max="8" width="6.78181818181818" customWidth="1"/>
-    <col min="9" max="9" width="2.78181818181818" customWidth="1"/>
-    <col min="10" max="16" width="6.78181818181818" customWidth="1"/>
-    <col min="17" max="17" width="2.78181818181818" customWidth="1"/>
-    <col min="18" max="24" width="6.78181818181818" customWidth="1"/>
-    <col min="25" max="25" width="10" customWidth="1"/>
-    <col min="26" max="26" width="5.78181818181818" customWidth="1"/>
-    <col min="27" max="29" width="25" customWidth="1"/>
-    <col min="30" max="30" width="10" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="2.78181818181818" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="6.78181818181818" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.78181818181818" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" width="6.78181818181818" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.78181818181818" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" width="6.78181818181818" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="5.78181818181818" collapsed="true"/>
+    <col min="27" max="29" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="1" spans="2:24">
@@ -5139,18 +5163,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -5723,18 +5747,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -6315,18 +6339,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -6897,18 +6921,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -7488,18 +7512,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:14">
@@ -8152,7 +8176,7 @@
       <c r="H62" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCDB" sheet="1" objects="1"/>
+  <sheetProtection password="BCDB" sheet="true" objects="true" scenarios="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -8179,18 +8203,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:14">
@@ -8832,7 +8856,7 @@
       <c r="H62" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCDB" sheet="1" objects="1"/>
+  <sheetProtection password="BCDB" sheet="true" objects="true" scenarios="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -8859,18 +8883,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:14">
@@ -9532,7 +9556,7 @@
       <c r="H62" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCDB" sheet="1" objects="1"/>
+  <sheetProtection password="BCDB" sheet="true" objects="true" scenarios="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -9559,18 +9583,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:14">
@@ -10205,7 +10229,7 @@
       <c r="H62" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCDB" sheet="1" objects="1"/>
+  <sheetProtection password="BCDB" sheet="true" objects="true" scenarios="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -10232,18 +10256,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:14">
@@ -10408,8 +10432,12 @@
       <c r="B17" s="12">
         <v>2</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="C17" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G17" s="14">
         <f t="shared" ref="G17:G21" si="0">IF((E17-C17)*24&lt;=4,(E17-C17)*24,(E17-C17)*24-1)</f>
         <v>0</v>
@@ -10419,8 +10447,12 @@
       <c r="B18" s="12">
         <v>3</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="C18" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10430,8 +10462,12 @@
       <c r="B19" s="12">
         <v>4</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="C19" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G19" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10441,8 +10477,12 @@
       <c r="B20" s="12">
         <v>5</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="C20" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G20" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10452,8 +10492,12 @@
       <c r="B21" s="12">
         <v>6</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="C21" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G21" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10483,8 +10527,12 @@
       <c r="B24" s="12">
         <v>9</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="C24" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G24" s="14">
         <f t="shared" ref="G24:G28" si="1">IF((E24-C24)*24&lt;=4,(E24-C24)*24,(E24-C24)*24-1)</f>
         <v>0</v>
@@ -10494,8 +10542,12 @@
       <c r="B25" s="12">
         <v>10</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="C25" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G25" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10505,8 +10557,12 @@
       <c r="B26" s="12">
         <v>11</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="C26" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G26" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10516,8 +10572,12 @@
       <c r="B27" s="12">
         <v>12</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="C27" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G27" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10527,8 +10587,12 @@
       <c r="B28" s="12">
         <v>13</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="C28" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G28" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10558,8 +10622,12 @@
       <c r="B31" s="12">
         <v>16</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="C31" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G31" s="14">
         <f t="shared" ref="G31:G35" si="2">IF((E31-C31)*24&lt;=4,(E31-C31)*24,(E31-C31)*24-1)</f>
         <v>0</v>
@@ -10569,8 +10637,12 @@
       <c r="B32" s="12">
         <v>17</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="C32" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G32" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10580,8 +10652,12 @@
       <c r="B33" s="12">
         <v>18</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="C33" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G33" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10591,8 +10667,12 @@
       <c r="B34" s="12">
         <v>19</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="C34" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E34" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G34" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10602,8 +10682,12 @@
       <c r="B35" s="12">
         <v>20</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="C35" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G35" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10633,8 +10717,12 @@
       <c r="B38" s="12">
         <v>23</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="C38" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E38" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G38" s="14">
         <f t="shared" ref="G38:G42" si="3">IF((E38-C38)*24&lt;=4,(E38-C38)*24,(E38-C38)*24-1)</f>
         <v>0</v>
@@ -10644,8 +10732,12 @@
       <c r="B39" s="12">
         <v>24</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="C39" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E39" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G39" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10655,8 +10747,12 @@
       <c r="B40" s="12">
         <v>25</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="E40" s="13"/>
+      <c r="C40" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E40" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G40" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10666,8 +10762,12 @@
       <c r="B41" s="12">
         <v>26</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="E41" s="13"/>
+      <c r="C41" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G41" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10677,8 +10777,12 @@
       <c r="B42" s="12">
         <v>27</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="C42" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G42" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10708,8 +10812,12 @@
       <c r="B45" s="12">
         <v>30</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="E45" s="13"/>
+      <c r="C45" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E45" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G45" s="14">
         <f>IF((E45-C45)*24&lt;=4,(E45-C45)*24,(E45-C45)*24-1)</f>
         <v>0</v>
@@ -10719,8 +10827,12 @@
       <c r="B46" s="12">
         <v>31</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="E46" s="13"/>
+      <c r="C46" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E46" s="132" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G46" s="14">
         <f>IF((E46-C46)*24&lt;=4,(E46-C46)*24,(E46-C46)*24-1)</f>
         <v>0</v>
@@ -10841,18 +10953,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -10997,8 +11109,12 @@
       <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="C16" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G16" s="14">
         <f t="shared" ref="G16:G18" si="0">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
         <v>0</v>
@@ -11008,8 +11124,12 @@
       <c r="B17" s="12">
         <v>2</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="C17" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11019,8 +11139,12 @@
       <c r="B18" s="12">
         <v>3</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="C18" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11050,8 +11174,12 @@
       <c r="B21" s="12">
         <v>6</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="C21" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G21" s="14">
         <f t="shared" ref="G21:G25" si="1">IF((E21-C21)*24&lt;=4,(E21-C21)*24,(E21-C21)*24-1)</f>
         <v>0</v>
@@ -11061,8 +11189,12 @@
       <c r="B22" s="12">
         <v>7</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="C22" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G22" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11072,8 +11204,12 @@
       <c r="B23" s="12">
         <v>8</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="C23" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G23" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11083,8 +11219,12 @@
       <c r="B24" s="12">
         <v>9</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="C24" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G24" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11094,11 +11234,14 @@
       <c r="B25" s="12">
         <v>10</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="G25" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C25" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="1" spans="2:7">
@@ -11125,8 +11268,12 @@
       <c r="B28" s="12">
         <v>13</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="C28" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G28" s="14">
         <f t="shared" ref="G28:G32" si="2">IF((E28-C28)*24&lt;=4,(E28-C28)*24,(E28-C28)*24-1)</f>
         <v>0</v>
@@ -11136,8 +11283,12 @@
       <c r="B29" s="12">
         <v>14</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="C29" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G29" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11147,8 +11298,12 @@
       <c r="B30" s="12">
         <v>15</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="C30" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G30" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11158,8 +11313,12 @@
       <c r="B31" s="12">
         <v>16</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="C31" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G31" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11169,8 +11328,12 @@
       <c r="B32" s="12">
         <v>17</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="C32" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G32" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11200,8 +11363,12 @@
       <c r="B35" s="12">
         <v>20</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="C35" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G35" s="14">
         <f t="shared" ref="G35:G39" si="3">IF((E35-C35)*24&lt;=4,(E35-C35)*24,(E35-C35)*24-1)</f>
         <v>0</v>
@@ -11211,8 +11378,12 @@
       <c r="B36" s="12">
         <v>21</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="C36" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G36" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11222,8 +11393,12 @@
       <c r="B37" s="12">
         <v>22</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="C37" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G37" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11233,8 +11408,12 @@
       <c r="B38" s="12">
         <v>23</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="C38" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E38" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G38" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11244,8 +11423,12 @@
       <c r="B39" s="12">
         <v>24</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="C39" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E39" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G39" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11275,8 +11458,12 @@
       <c r="B42" s="12">
         <v>27</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="C42" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G42" s="14">
         <f t="shared" ref="G42:G45" si="4">IF((E42-C42)*24&lt;=4,(E42-C42)*24,(E42-C42)*24-1)</f>
         <v>0</v>
@@ -11286,8 +11473,12 @@
       <c r="B43" s="12">
         <v>28</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="C43" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G43" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11297,8 +11488,12 @@
       <c r="B44" s="12">
         <v>29</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="E44" s="13"/>
+      <c r="C44" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G44" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11308,8 +11503,12 @@
       <c r="B45" s="12">
         <v>30</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="E45" s="13"/>
+      <c r="C45" s="133" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E45" s="133" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G45" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11430,18 +11629,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -11581,11 +11780,14 @@
       <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="G16" s="14">
-        <f t="shared" ref="G16:G23" si="0">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
-        <v>0</v>
+      <c r="C16" s="131" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="131" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="17" ht="14.4" customHeight="1" spans="2:7">
@@ -11612,32 +11814,42 @@
       <c r="B19" s="12">
         <v>4</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="G19" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C19" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="1" spans="2:7">
       <c r="B20" s="12">
         <v>5</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="G20" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C20" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="1" spans="2:7">
       <c r="B21" s="12">
         <v>6</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="C21" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="134" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G21" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="0" ref="G21:G23">IF((E21-C21)*24&lt;=4,(E21-C21)*24,(E21-C21)*24-1)</f>
         <v>0</v>
       </c>
     </row>
@@ -11645,8 +11857,12 @@
       <c r="B22" s="12">
         <v>7</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="C22" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="134" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G22" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11656,8 +11872,12 @@
       <c r="B23" s="12">
         <v>8</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="C23" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="134" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G23" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11687,8 +11907,12 @@
       <c r="B26" s="12">
         <v>11</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="C26" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="134" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G26" s="14">
         <f t="shared" ref="G26:G30" si="1">IF((E26-C26)*24&lt;=4,(E26-C26)*24,(E26-C26)*24-1)</f>
         <v>0</v>
@@ -11698,8 +11922,12 @@
       <c r="B27" s="12">
         <v>12</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="C27" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="134" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G27" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11709,8 +11937,12 @@
       <c r="B28" s="12">
         <v>13</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="C28" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="134" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G28" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11720,8 +11952,12 @@
       <c r="B29" s="12">
         <v>14</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="C29" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="134" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G29" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11731,8 +11967,12 @@
       <c r="B30" s="12">
         <v>15</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="C30" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="134" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G30" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11762,8 +12002,12 @@
       <c r="B33" s="12">
         <v>18</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="C33" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="134" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G33" s="14">
         <f t="shared" ref="G33:G37" si="2">IF((E33-C33)*24&lt;=4,(E33-C33)*24,(E33-C33)*24-1)</f>
         <v>0</v>
@@ -11773,8 +12017,12 @@
       <c r="B34" s="12">
         <v>19</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="C34" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E34" s="134" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G34" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11784,8 +12032,12 @@
       <c r="B35" s="12">
         <v>20</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="C35" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="134" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G35" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11795,8 +12047,12 @@
       <c r="B36" s="12">
         <v>21</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="C36" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="134" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G36" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11806,8 +12062,12 @@
       <c r="B37" s="12">
         <v>22</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="C37" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="134" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G37" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11847,8 +12107,12 @@
       <c r="B41" s="12">
         <v>26</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="E41" s="13"/>
+      <c r="C41" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="134" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G41" s="14">
         <f t="shared" ref="G41:G44" si="3">IF((E41-C41)*24&lt;=4,(E41-C41)*24,(E41-C41)*24-1)</f>
         <v>0</v>
@@ -11858,8 +12122,12 @@
       <c r="B42" s="12">
         <v>27</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="C42" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="134" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G42" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11869,8 +12137,12 @@
       <c r="B43" s="12">
         <v>28</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="C43" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="134" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G43" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11880,8 +12152,12 @@
       <c r="B44" s="12">
         <v>29</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="E44" s="13"/>
+      <c r="C44" s="134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="134" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G44" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12022,18 +12298,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -12217,11 +12493,14 @@
       <c r="B20" s="12">
         <v>5</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="G20" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="1" spans="2:7">
@@ -12248,55 +12527,70 @@
       <c r="B23" s="12">
         <v>8</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="G23" s="14">
-        <f t="shared" ref="G23:G27" si="1">IF((E23-C23)*24&lt;=4,(E23-C23)*24,(E23-C23)*24-1)</f>
-        <v>0</v>
+      <c r="C23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="1" spans="2:7">
       <c r="B24" s="12">
         <v>9</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="G24" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="1" spans="2:7">
       <c r="B25" s="12">
         <v>10</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="G25" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="1" spans="2:7">
       <c r="B26" s="12">
         <v>11</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="G26" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="1" spans="2:7">
       <c r="B27" s="12">
         <v>12</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="G27" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="1" spans="2:7">
@@ -12333,44 +12627,56 @@
       <c r="B31" s="12">
         <v>16</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="G31" s="14">
-        <f t="shared" ref="G31:G34" si="2">IF((E31-C31)*24&lt;=4,(E31-C31)*24,(E31-C31)*24-1)</f>
-        <v>0</v>
+      <c r="C31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="1" spans="2:7">
       <c r="B32" s="12">
         <v>17</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="G32" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="1" spans="2:7">
       <c r="B33" s="12">
         <v>18</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="G33" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="1" spans="2:7">
       <c r="B34" s="12">
         <v>19</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="G34" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="1" spans="2:7">
@@ -12397,11 +12703,14 @@
       <c r="B37" s="12">
         <v>22</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="G37" s="14">
-        <f t="shared" ref="G37:G41" si="3">IF((E37-C37)*24&lt;=4,(E37-C37)*24,(E37-C37)*24-1)</f>
-        <v>0</v>
+      <c r="C37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="1" spans="2:7">
@@ -12411,7 +12720,7 @@
       <c r="C38" s="13"/>
       <c r="E38" s="13"/>
       <c r="G38" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="3" ref="G38:G41">IF((E38-C38)*24&lt;=4,(E38-C38)*24,(E38-C38)*24-1)</f>
         <v>0</v>
       </c>
     </row>
